--- a/check_list_0322.xlsx
+++ b/check_list_0322.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="37755" windowHeight="12570" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="37755" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PDP_0317" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>P5 WOW</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://stgweb4.samsung.com/global/microsite/{작업폴더경로}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID : qauser   PW : guest123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,10 +269,6 @@
   <si>
     <t>html,css,js 각 3,000라인이 넘으면 안됨
 css에는 주석이 들어가면 안됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 용량 400kbyte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,6 +514,19 @@
   </si>
   <si>
     <t>update : 2017. 03. 22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요한 파일 정리해서 WCMS 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://stgweb4.samsung.com/global/microsite/{작업폴더경로}
+예시 : http://stgweb4.samsung.com/global/microsite/galaxybook/10.6/ (갤럭시북 10.6인치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 용량 400kbyte</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,28 +943,37 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -980,6 +994,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,15 +1030,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,21 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1347,83 +1352,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A2" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
+      <c r="A2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="I4" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="22" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="26.25" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="27.75" customHeight="1">
       <c r="A6" s="2">
@@ -1441,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1460,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1813,7 +1818,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1827,25 +1832,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="36.75" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5" customHeight="1">
@@ -1853,7 +1858,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1885,7 +1890,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1915,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1947,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1961,13 +1966,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1977,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1991,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2018,8 +2023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2029,10 +2034,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="46"/>
     </row>
     <row r="3" spans="1:2" ht="27.75" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -2055,7 +2060,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.75" customHeight="1">
@@ -2063,14 +2068,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1">
       <c r="A8" s="2">
@@ -2127,37 +2134,37 @@
       <c r="B16" s="9"/>
     </row>
     <row r="20" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A20" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="39"/>
-    </row>
-    <row r="21" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A20" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="47"/>
+    </row>
+    <row r="21" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A21" s="48" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A22" s="40"/>
+    <row r="22" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A23" s="40" t="s">
+    <row r="23" spans="1:2" ht="46.5" customHeight="1">
+      <c r="A23" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A24" s="48"/>
+      <c r="B24" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2190,83 +2197,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="A1" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1">
       <c r="A2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A3" s="42" t="s">
-        <v>44</v>
+      <c r="A3" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="70.5" customHeight="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="70.5" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="39" customHeight="1">
-      <c r="A5" s="41" t="s">
-        <v>45</v>
+      <c r="A5" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="84" customHeight="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="84" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="42" customHeight="1">
+      <c r="A7" s="49"/>
+      <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="42" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" customHeight="1">
-      <c r="A8" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="41"/>
+      <c r="A8" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="49"/>
       <c r="C8" s="17" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D8" s="16"/>
     </row>
@@ -2290,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2305,103 +2312,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="A1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="53" t="s">
-        <v>90</v>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="29" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="G3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="115.5">
-      <c r="A5" s="47"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="6" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A6" s="47"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2411,7 +2418,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A7" s="47"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2421,7 +2428,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A8" s="47"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2431,7 +2438,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A9" s="47"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2441,7 +2448,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A10" s="48"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2451,29 +2458,29 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A11" s="46" t="s">
-        <v>72</v>
+      <c r="A11" s="51" t="s">
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A12" s="47"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2483,7 +2490,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A13" s="47"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2493,7 +2500,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A14" s="47"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2503,7 +2510,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2513,7 +2520,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2523,7 +2530,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2533,7 +2540,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="24.75" customHeight="1">
-      <c r="A18" s="48"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
